--- a/email.xlsx
+++ b/email.xlsx
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>sender</t>
   </si>
   <si>
     <t>kodewithus</t>
@@ -41,16 +44,22 @@
     <t>kodewithus340@gmail.com</t>
   </si>
   <si>
+    <t>souvikdaw@humbleandintelligent.online</t>
+  </si>
+  <si>
     <t>souvikdebpalgupta</t>
   </si>
   <si>
     <t>souvikdebpalgupta@gmail.com</t>
   </si>
   <si>
-    <t>basudeb</t>
+    <t>souvik</t>
   </si>
   <si>
-    <t>basudeb2411@gmail.com</t>
+    <t>souvikdaw2000@gmail.com</t>
+  </si>
+  <si>
+    <t>daw.souvik@humbleandintelligent.online</t>
   </si>
 </sst>
 </file>
@@ -664,9 +673,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -990,55 +1000,109 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="69.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="37.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="kodewithus340@gmail.com" tooltip="mailto:kodewithus340@gmail.com"/>
     <hyperlink ref="B3" r:id="rId2" display="souvikdebpalgupta@gmail.com" tooltip="mailto:souvikdebpalgupta@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId3" display="basudeb2411@gmail.com" tooltip="mailto:basudeb2411@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="souvikdaw2000@gmail.com" tooltip="mailto:souvikdaw2000@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="kodewithus340@gmail.com" tooltip="mailto:kodewithus340@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId2" display="souvikdebpalgupta@gmail.com" tooltip="mailto:souvikdebpalgupta@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId3" display="souvikdaw2000@gmail.com" tooltip="mailto:souvikdaw2000@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId4" display="souvikdaw@humbleandintelligent.online" tooltip="mailto:souvikdaw@humbleandintelligent.online"/>
+    <hyperlink ref="C4" r:id="rId4" display="souvikdaw@humbleandintelligent.online"/>
+    <hyperlink ref="C5" r:id="rId5" display="daw.souvik@humbleandintelligent.online"/>
+    <hyperlink ref="C6" r:id="rId5" display="daw.souvik@humbleandintelligent.online"/>
+    <hyperlink ref="C7" r:id="rId5" display="daw.souvik@humbleandintelligent.online"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
